--- a/biology/Zoologie/Anelasmocephalus_crassipes/Anelasmocephalus_crassipes.xlsx
+++ b/biology/Zoologie/Anelasmocephalus_crassipes/Anelasmocephalus_crassipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anelasmocephalus crassipes est une espèce d'opilions dyspnois de la famille des Trogulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie et au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Tunisie et au Maroc.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 4,5 mm[2].
-Les mâles mesurent de 3,0 à 4,3 mm et les femelles de 3,4 à 5,3 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 4,5 mm.
+Les mâles mesurent de 3,0 à 4,3 mm et les femelles de 3,4 à 5,3 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est décrite sous le protonyme Trogulus crassipes par Hippolyte Lucas en 1846. Elle est placée dans le genre Anelasmocephalus par Carl Friedrich Roewer en 1923[3].
-Trogulus annulipes[2], Anelasma oblongum[4] et Anelasmocephalus bicarinatus[5] sont placées en synonymie par Jochen Martens (de) et Claudio Chemini en 1988[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite sous le protonyme Trogulus crassipes par Hippolyte Lucas en 1846. Elle est placée dans le genre Anelasmocephalus par Carl Friedrich Roewer en 1923.
+Trogulus annulipes, Anelasma oblongum et Anelasmocephalus bicarinatus sont placées en synonymie par Jochen Martens (de) et Claudio Chemini en 1988.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hippolyte Lucas, « Histoire naturelle des animaux articulés », dans Exploration scientifique de l'Algérie pendant les années 1840, 1841, 1842 publiée par ordre du Gouvernement et avec le concours d'une commission académique, vol. 1 : Sciences physiques, Zoologie, Paris, Imprimerie nationale, 1846, p. 89-271.</t>
         </is>
